--- a/blank chart.xlsx
+++ b/blank chart.xlsx
@@ -14,7 +14,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="254">
+  <si>
+    <t>Planet / Orb</t>
+  </si>
+  <si>
+    <t>Degree Sign</t>
+  </si>
+  <si>
+    <t>Degree range start</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Moon</t>
+  </si>
+  <si>
+    <t>Asc</t>
+  </si>
+  <si>
+    <t>Mercury</t>
+  </si>
+  <si>
+    <t>Venus</t>
+  </si>
+  <si>
+    <t>Mars</t>
+  </si>
+  <si>
+    <t>Jupiter</t>
+  </si>
+  <si>
+    <t>Saturn</t>
+  </si>
+  <si>
+    <t>Uranus</t>
+  </si>
+  <si>
+    <t>Neptune</t>
+  </si>
+  <si>
+    <t>Pluto</t>
+  </si>
   <si>
     <t>0</t>
   </si>
@@ -740,8 +782,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -769,8 +819,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1065,973 +1116,1017 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:D120"/>
+  <dimension ref="B1:P121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
+    <col min="1" max="4" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:4">
-      <c r="C1" t="s">
+    <row r="1" spans="2:16">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="3:4">
-      <c r="C2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16">
       <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="3:4">
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16">
       <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="3:4">
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16">
       <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4">
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16">
       <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4">
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
       <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4">
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
       <c r="D7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4">
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
       <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4">
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16">
       <c r="D9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4">
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
       <c r="D10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4">
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16">
       <c r="D11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4">
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16">
       <c r="D12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4">
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
       <c r="D13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="3:4">
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
       <c r="D14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4">
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
       <c r="D15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4">
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
       <c r="D16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5">
       <c r="D17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
       <c r="D18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5">
       <c r="D19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" t="s">
-        <v>39</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
       <c r="D20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4">
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5">
       <c r="D21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4">
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5">
       <c r="D22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4">
-      <c r="C23" t="s">
-        <v>45</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5">
       <c r="D23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" t="s">
-        <v>47</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5">
       <c r="D24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4">
-      <c r="C25" t="s">
-        <v>49</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="E24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5">
       <c r="D25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4">
-      <c r="C26" t="s">
-        <v>51</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5">
       <c r="D26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4">
-      <c r="C27" t="s">
-        <v>53</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5">
       <c r="D27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4">
-      <c r="C28" t="s">
-        <v>55</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5">
       <c r="D28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4">
-      <c r="C29" t="s">
-        <v>57</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5">
       <c r="D29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4">
-      <c r="C30" t="s">
-        <v>59</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5">
       <c r="D30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4">
-      <c r="C31" t="s">
-        <v>61</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="E30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5">
       <c r="D31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4">
-      <c r="C32" t="s">
-        <v>63</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5">
       <c r="D32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4">
-      <c r="C33" t="s">
-        <v>65</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5">
       <c r="D33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4">
-      <c r="C34" t="s">
-        <v>67</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5">
       <c r="D34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4">
-      <c r="C35" t="s">
-        <v>69</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5">
       <c r="D35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4">
-      <c r="C36" t="s">
-        <v>71</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5">
       <c r="D36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4">
-      <c r="C37" t="s">
-        <v>73</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="E36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5">
       <c r="D37" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4">
-      <c r="C38" t="s">
-        <v>75</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="E37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5">
       <c r="D38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4">
-      <c r="C39" t="s">
-        <v>77</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5">
       <c r="D39" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4">
-      <c r="C40" t="s">
-        <v>79</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5">
       <c r="D40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4">
-      <c r="C41" t="s">
-        <v>81</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="E40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5">
       <c r="D41" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4">
-      <c r="C42" t="s">
-        <v>83</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="E41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5">
       <c r="D42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4">
-      <c r="C43" t="s">
-        <v>85</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="E42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5">
       <c r="D43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4">
-      <c r="C44" t="s">
-        <v>87</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="E43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5">
       <c r="D44" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4">
-      <c r="C45" t="s">
-        <v>89</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="E44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5">
       <c r="D45" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="3:4">
-      <c r="C46" t="s">
-        <v>91</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5">
       <c r="D46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="3:4">
-      <c r="C47" t="s">
-        <v>93</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="E46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5">
       <c r="D47" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="3:4">
-      <c r="C48" t="s">
-        <v>95</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="E47" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5">
       <c r="D48" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4">
-      <c r="C49" t="s">
-        <v>97</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5">
       <c r="D49" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4">
-      <c r="C50" t="s">
-        <v>99</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5">
       <c r="D50" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4">
-      <c r="C51" t="s">
-        <v>101</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="E50" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5">
       <c r="D51" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4">
-      <c r="C52" t="s">
-        <v>103</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="E51" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5">
       <c r="D52" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4">
-      <c r="C53" t="s">
-        <v>105</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="E52" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5">
       <c r="D53" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="3:4">
-      <c r="C54" t="s">
-        <v>107</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="E53" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5">
       <c r="D54" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="3:4">
-      <c r="C55" t="s">
-        <v>109</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E54" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5">
       <c r="D55" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="3:4">
-      <c r="C56" t="s">
-        <v>111</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="E55" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5">
       <c r="D56" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="3:4">
-      <c r="C57" t="s">
-        <v>113</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="E56" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5">
       <c r="D57" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" spans="3:4">
-      <c r="C58" t="s">
-        <v>115</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="E57" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5">
       <c r="D58" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="59" spans="3:4">
-      <c r="C59" t="s">
-        <v>117</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="E58" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5">
       <c r="D59" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="3:4">
-      <c r="C60" t="s">
-        <v>119</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="E59" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="4:5">
       <c r="D60" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="61" spans="3:4">
-      <c r="C61" t="s">
-        <v>121</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="E60" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="4:5">
       <c r="D61" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="62" spans="3:4">
-      <c r="C62" t="s">
-        <v>123</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="E61" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="4:5">
       <c r="D62" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="3:4">
-      <c r="C63" t="s">
-        <v>125</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="E62" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="4:5">
       <c r="D63" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="64" spans="3:4">
-      <c r="C64" t="s">
-        <v>127</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="E63" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="4:5">
       <c r="D64" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4">
-      <c r="C65" t="s">
-        <v>129</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="E64" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5">
       <c r="D65" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="66" spans="3:4">
-      <c r="C66" t="s">
-        <v>131</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="E65" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5">
       <c r="D66" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="67" spans="3:4">
-      <c r="C67" t="s">
-        <v>133</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="E66" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5">
       <c r="D67" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="68" spans="3:4">
-      <c r="C68" t="s">
-        <v>135</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="E67" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5">
       <c r="D68" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="69" spans="3:4">
-      <c r="C69" t="s">
-        <v>137</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="E68" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5">
       <c r="D69" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="70" spans="3:4">
-      <c r="C70" t="s">
-        <v>139</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="E69" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5">
       <c r="D70" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="71" spans="3:4">
-      <c r="C71" t="s">
-        <v>141</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="E70" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5">
       <c r="D71" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="72" spans="3:4">
-      <c r="C72" t="s">
-        <v>143</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="E71" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5">
       <c r="D72" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="73" spans="3:4">
-      <c r="C73" t="s">
-        <v>145</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="E72" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5">
       <c r="D73" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="74" spans="3:4">
-      <c r="C74" t="s">
-        <v>147</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="E73" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5">
       <c r="D74" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="75" spans="3:4">
-      <c r="C75" t="s">
-        <v>149</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="E74" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5">
       <c r="D75" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="76" spans="3:4">
-      <c r="C76" t="s">
-        <v>151</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="E75" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="4:5">
       <c r="D76" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="77" spans="3:4">
-      <c r="C77" t="s">
-        <v>153</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="E76" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="4:5">
       <c r="D77" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="78" spans="3:4">
-      <c r="C78" t="s">
-        <v>155</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="E77" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="4:5">
       <c r="D78" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="79" spans="3:4">
-      <c r="C79" t="s">
-        <v>157</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="E78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="79" spans="4:5">
       <c r="D79" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="80" spans="3:4">
-      <c r="C80" t="s">
-        <v>159</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="E79" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="80" spans="4:5">
       <c r="D80" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="81" spans="3:4">
-      <c r="C81" t="s">
-        <v>161</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="E80" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5">
       <c r="D81" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="82" spans="3:4">
-      <c r="C82" t="s">
-        <v>163</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E81" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5">
       <c r="D82" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="83" spans="3:4">
-      <c r="C83" t="s">
-        <v>165</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="E82" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5">
       <c r="D83" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="84" spans="3:4">
-      <c r="C84" t="s">
-        <v>167</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="E83" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5">
       <c r="D84" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="85" spans="3:4">
-      <c r="C85" t="s">
-        <v>169</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="E84" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5">
       <c r="D85" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="86" spans="3:4">
-      <c r="C86" t="s">
-        <v>171</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="E85" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86" spans="4:5">
       <c r="D86" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="87" spans="3:4">
-      <c r="C87" t="s">
-        <v>173</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="E86" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="87" spans="4:5">
       <c r="D87" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="88" spans="3:4">
-      <c r="C88" t="s">
-        <v>175</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="E87" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="88" spans="4:5">
       <c r="D88" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="89" spans="3:4">
-      <c r="C89" t="s">
-        <v>177</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="E88" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="89" spans="4:5">
       <c r="D89" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="90" spans="3:4">
-      <c r="C90" t="s">
-        <v>179</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="E89" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="90" spans="4:5">
       <c r="D90" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="91" spans="3:4">
-      <c r="C91" t="s">
-        <v>181</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="E90" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="91" spans="4:5">
       <c r="D91" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="92" spans="3:4">
-      <c r="C92" t="s">
-        <v>183</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="E91" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="92" spans="4:5">
       <c r="D92" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="93" spans="3:4">
-      <c r="C93" t="s">
-        <v>185</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="E92" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="93" spans="4:5">
       <c r="D93" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="94" spans="3:4">
-      <c r="C94" t="s">
-        <v>187</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="E93" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="94" spans="4:5">
       <c r="D94" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="95" spans="3:4">
-      <c r="C95" t="s">
-        <v>189</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="E94" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="95" spans="4:5">
       <c r="D95" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="96" spans="3:4">
-      <c r="C96" t="s">
-        <v>191</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="E95" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96" spans="4:5">
       <c r="D96" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="97" spans="3:4">
-      <c r="C97" t="s">
-        <v>193</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E96" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="97" spans="4:5">
       <c r="D97" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="98" spans="3:4">
-      <c r="C98" t="s">
-        <v>195</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E97" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="98" spans="4:5">
       <c r="D98" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="99" spans="3:4">
-      <c r="C99" t="s">
-        <v>197</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="E98" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="99" spans="4:5">
       <c r="D99" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="100" spans="3:4">
-      <c r="C100" t="s">
-        <v>199</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="E99" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5">
       <c r="D100" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="101" spans="3:4">
-      <c r="C101" t="s">
-        <v>201</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="E100" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="101" spans="4:5">
       <c r="D101" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="102" spans="3:4">
-      <c r="C102" t="s">
-        <v>203</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="E101" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="102" spans="4:5">
       <c r="D102" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="103" spans="3:4">
-      <c r="C103" t="s">
-        <v>205</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="E102" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="103" spans="4:5">
       <c r="D103" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="104" spans="3:4">
-      <c r="C104" t="s">
-        <v>207</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="E103" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="104" spans="4:5">
       <c r="D104" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="105" spans="3:4">
-      <c r="C105" t="s">
-        <v>209</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="E104" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="105" spans="4:5">
       <c r="D105" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="106" spans="3:4">
-      <c r="C106" t="s">
-        <v>211</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="E105" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="106" spans="4:5">
       <c r="D106" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="107" spans="3:4">
-      <c r="C107" t="s">
-        <v>213</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="E106" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="107" spans="4:5">
       <c r="D107" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="108" spans="3:4">
-      <c r="C108" t="s">
-        <v>215</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E107" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="108" spans="4:5">
       <c r="D108" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="109" spans="3:4">
-      <c r="C109" t="s">
-        <v>217</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="E108" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="109" spans="4:5">
       <c r="D109" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="110" spans="3:4">
-      <c r="C110" t="s">
-        <v>219</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="E109" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="110" spans="4:5">
       <c r="D110" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="111" spans="3:4">
-      <c r="C111" t="s">
-        <v>221</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="E110" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="111" spans="4:5">
       <c r="D111" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="112" spans="3:4">
-      <c r="C112" t="s">
-        <v>223</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="E111" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="112" spans="4:5">
       <c r="D112" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="113" spans="3:4">
-      <c r="C113" t="s">
-        <v>225</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="E112" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="113" spans="4:5">
       <c r="D113" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="114" spans="3:4">
-      <c r="C114" t="s">
-        <v>227</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="E113" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="114" spans="4:5">
       <c r="D114" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="115" spans="3:4">
-      <c r="C115" t="s">
-        <v>229</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="E114" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="115" spans="4:5">
       <c r="D115" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="116" spans="3:4">
-      <c r="C116" t="s">
-        <v>231</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="E115" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="116" spans="4:5">
       <c r="D116" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="117" spans="3:4">
-      <c r="C117" t="s">
-        <v>233</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="E116" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="117" spans="4:5">
       <c r="D117" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="118" spans="3:4">
-      <c r="C118" t="s">
-        <v>235</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="E117" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="118" spans="4:5">
       <c r="D118" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="119" spans="3:4">
-      <c r="C119" t="s">
-        <v>237</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="E118" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="119" spans="4:5">
       <c r="D119" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="120" spans="3:4">
-      <c r="C120" t="s">
-        <v>239</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="E119" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="120" spans="4:5">
       <c r="D120" t="s">
-        <v>238</v>
+        <v>251</v>
+      </c>
+      <c r="E120" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="121" spans="4:5">
+      <c r="D121" t="s">
+        <v>253</v>
+      </c>
+      <c r="E121" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
